--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7a-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7a-Fzd1.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5018866666666666</v>
+        <v>1.090710333333333</v>
       </c>
       <c r="N2">
-        <v>1.50566</v>
+        <v>3.272131</v>
       </c>
       <c r="O2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="P2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="Q2">
-        <v>0.1056598577955555</v>
+        <v>0.2296221564951111</v>
       </c>
       <c r="R2">
-        <v>0.9509387201599999</v>
+        <v>2.066599408456</v>
       </c>
       <c r="S2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="T2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>51.019709</v>
       </c>
       <c r="O3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="P3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="Q3">
         <v>3.580313747931556</v>
@@ -641,10 +641,10 @@
         <v>32.222823731384</v>
       </c>
       <c r="S3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="T3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4244703333333333</v>
+        <v>0.740281</v>
       </c>
       <c r="N4">
-        <v>1.273411</v>
+        <v>2.220843</v>
       </c>
       <c r="O4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="P4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="Q4">
-        <v>0.0893617584151111</v>
+        <v>0.1558479042853333</v>
       </c>
       <c r="R4">
-        <v>0.804255825736</v>
+        <v>1.402631138568</v>
       </c>
       <c r="S4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="T4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.007616666666667</v>
+        <v>2.784013333333333</v>
       </c>
       <c r="N5">
-        <v>9.02285</v>
+        <v>8.352039999999999</v>
       </c>
       <c r="O5">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="P5">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="Q5">
-        <v>0.633179501288889</v>
+        <v>0.5861053350044444</v>
       </c>
       <c r="R5">
-        <v>5.6986155116</v>
+        <v>5.27494801504</v>
       </c>
       <c r="S5">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="T5">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2431653333333333</v>
+        <v>0.2710316666666667</v>
       </c>
       <c r="N6">
-        <v>0.729496</v>
+        <v>0.813095</v>
       </c>
       <c r="O6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="P6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="Q6">
-        <v>0.05119246285511111</v>
+        <v>0.05705903196888889</v>
       </c>
       <c r="R6">
-        <v>0.4607321656960001</v>
+        <v>0.51353128772</v>
       </c>
       <c r="S6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="T6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3996003333333333</v>
+        <v>0.436508</v>
       </c>
       <c r="N7">
-        <v>1.198801</v>
+        <v>1.309524</v>
       </c>
       <c r="O7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="P7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="Q7">
-        <v>0.08412599337511112</v>
+        <v>0.09189599220266666</v>
       </c>
       <c r="R7">
-        <v>0.757133940376</v>
+        <v>0.827063929824</v>
       </c>
       <c r="S7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="T7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
     </row>
   </sheetData>
